--- a/extracteds/Cases/Compra_Fechamento_Em_Queda (Regra Especial).xlsx
+++ b/extracteds/Cases/Compra_Fechamento_Em_Queda (Regra Especial).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Ativo</t>
   </si>
@@ -45,125 +45,343 @@
     <t xml:space="preserve">Max. Gain</t>
   </si>
   <si>
+    <t xml:space="preserve">Date Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Gain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Volume Min</t>
   </si>
   <si>
     <t xml:space="preserve">Volume Med</t>
   </si>
   <si>
+    <t>FHER3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-15 10:20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-16 10:10:00</t>
+  </si>
+  <si>
+    <t>RCSL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-20 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-08 10:00:00</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-19 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-25 10:10:00</t>
+  </si>
+  <si>
+    <t>LUPA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-22 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-26 10:10:00</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-11 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-20 10:05:00</t>
+  </si>
+  <si>
+    <t>STBP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-17 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-07 10:20:00</t>
+  </si>
+  <si>
+    <t>ETER3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23 10:05:00</t>
+  </si>
+  <si>
+    <t>BIDI11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-26 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-25 10:05:00</t>
+  </si>
+  <si>
+    <t>NGRD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-27 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-23 10:05:00</t>
+  </si>
+  <si>
+    <t>ENJU3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-12 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-08 10:20:00</t>
+  </si>
+  <si>
+    <t>POSI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-18 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-01 10:05:00</t>
+  </si>
+  <si>
+    <t>SQIA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-15 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-25 10:05:00</t>
+  </si>
+  <si>
+    <t>BIDI4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-22 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-14 10:10:00</t>
+  </si>
+  <si>
+    <t>CURY3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-19 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-14 10:00:00</t>
+  </si>
+  <si>
+    <t>VIIA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-22 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-13 10:10:00</t>
+  </si>
+  <si>
+    <t>OPCT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-17 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-06 10:00:00</t>
+  </si>
+  <si>
+    <t>KEPL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-09 10:05:00</t>
+  </si>
+  <si>
+    <t>MOVI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-28 10:05:00</t>
+  </si>
+  <si>
+    <t>MTRE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-18 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-07 10:05:00</t>
+  </si>
+  <si>
+    <t>AMBP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-11 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-06 10:05:00</t>
+  </si>
+  <si>
+    <t>TPIS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-14 10:20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05 10:00:00</t>
+  </si>
+  <si>
+    <t>LOGG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-25 10:00:00</t>
+  </si>
+  <si>
+    <t>GFSA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-03 10:00:00</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-02 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-26 10:10:00</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-09 10:10:00</t>
+  </si>
+  <si>
+    <t>LJQQ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-12 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-04 10:00:00</t>
+  </si>
+  <si>
+    <t>ENAT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-23 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-25 10:10:00</t>
+  </si>
+  <si>
+    <t>AMAR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-28 10:10:00</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-23 10:10:00</t>
+  </si>
+  <si>
+    <t>TRIS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-05 10:05:00</t>
+  </si>
+  <si>
+    <t>MELI34</t>
+  </si>
+  <si>
+    <t>RAPT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-20 10:10:00</t>
+  </si>
+  <si>
     <t>MODL11</t>
   </si>
   <si>
-    <t>RCSL3</t>
-  </si>
-  <si>
-    <t>OPCT3</t>
-  </si>
-  <si>
-    <t>KEPL3</t>
-  </si>
-  <si>
-    <t>LOGG3</t>
-  </si>
-  <si>
-    <t>BMOB3</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>BIDI11</t>
-  </si>
-  <si>
-    <t>BEEF3</t>
-  </si>
-  <si>
-    <t>GFSA3</t>
-  </si>
-  <si>
-    <t>AMBP3</t>
+    <t xml:space="preserve">2021-06-29 10:05:00</t>
   </si>
   <si>
     <t>PTBL3</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-03-05 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-24 10:05:00</t>
+  </si>
+  <si>
+    <t>GMAT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16 10:05:00</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>BOAS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-02 10:05:00</t>
+  </si>
+  <si>
+    <t>BIDI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-13 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-11 10:00:00</t>
+  </si>
+  <si>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-15 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-05 10:05:00</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>JALL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-09 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-19 10:00:00</t>
+  </si>
+  <si>
     <t>MATD3</t>
   </si>
   <si>
-    <t>MOVI3</t>
-  </si>
-  <si>
-    <t>GMAT3</t>
-  </si>
-  <si>
-    <t>BIDI3</t>
-  </si>
-  <si>
-    <t>AMAR3</t>
-  </si>
-  <si>
-    <t>ENAT3</t>
-  </si>
-  <si>
-    <t>STBP3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>LJQQ3</t>
-  </si>
-  <si>
-    <t>CURY3</t>
-  </si>
-  <si>
-    <t>PETZ3</t>
-  </si>
-  <si>
-    <t>VIIA3</t>
-  </si>
-  <si>
-    <t>BOAS3</t>
-  </si>
-  <si>
-    <t>BIDI4</t>
-  </si>
-  <si>
-    <t>JALL3</t>
-  </si>
-  <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
-    <t>SQIA3</t>
-  </si>
-  <si>
-    <t>ENJU3</t>
-  </si>
-  <si>
-    <t>TRIS3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>MELI34</t>
-  </si>
-  <si>
-    <t>ETER3</t>
-  </si>
-  <si>
-    <t>NGRD3</t>
-  </si>
-  <si>
-    <t>FHER3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compra no leilão de fechamento caso haja queda igual ou superior a 0.2% e o fechmento do dia esteja abaixo do fechamento anterior.
-PRIMEIROS 6 MESES DE 2021</t>
+    <t xml:space="preserve">2021-05-20 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-04 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra no leilão de fechamento para vender na abertura do dia seguinte se: 
+O dia atual é uma queda igual ou superior a -0.2%(candle vermelho), o fechamento do dia atual esteja abaixo do fechamento do dia anterior e não seja uma sexta-feira.
+PRIMEIROS 6 MESES DE 2021
+caseCompraCandleQueda_1.py</t>
   </si>
 </sst>
 </file>
@@ -180,11 +398,11 @@
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
-      <sz val="16.000000"/>
+      <sz val="14.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,12 +410,6 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill/>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -212,12 +424,10 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="1" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -695,238 +905,280 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.73809523809523814</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.3757430047638276</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8.9462620181863708e-003</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-0.11358490566037738</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.311543810848395e-002</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>105400</v>
+      </c>
+      <c r="N2">
+        <v>2094783.6065573771</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>122</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.32124507694905347</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7.1387794877567435e-003</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-5.0000000000000044e-003</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.9126213592232997e-002</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.84210526315789469</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.15134243460667673</v>
-      </c>
-      <c r="H2" s="2">
-        <v>7.9653912950882495e-003</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>3.4358047016274984e-002</v>
-      </c>
-      <c r="K2">
-        <v>118600</v>
-      </c>
-      <c r="L2">
-        <v>1103927.9069767443</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
-        <v>122</v>
-      </c>
-      <c r="C3" s="3">
-        <v>48</v>
-      </c>
-      <c r="D3" s="3">
-        <v>38</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.32532008199866724</v>
-      </c>
-      <c r="H3" s="4">
-        <v>6.7775017083055679e-003</v>
-      </c>
-      <c r="I3" s="4">
-        <v>-5.0000000000000044e-003</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2.9126213592232997e-002</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="M3">
         <v>493700</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N3">
         <v>1630479.5081967213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2">
-        <v>0.71794871794871795</v>
+        <v>0.73469387755102045</v>
       </c>
       <c r="G4" s="2">
-        <v>0.18957691367878793</v>
+        <v>0.29476678497868736</v>
       </c>
       <c r="H4" s="2">
-        <v>4.8609465045843054e-003</v>
+        <v>6.0156486730344357e-003</v>
       </c>
       <c r="I4" s="2">
-        <v>-7.1942446043166131e-003</v>
+        <v>-2.3081052066559304e-002</v>
       </c>
       <c r="J4" s="2">
-        <v>2.185089974293053e-002</v>
-      </c>
-      <c r="K4">
-        <v>129700</v>
-      </c>
-      <c r="L4">
-        <v>1301420.2127659575</v>
+        <v>3.0337721808815221e-002</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>6009000</v>
+      </c>
+      <c r="N4">
+        <v>25010753.278688524</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>122</v>
-      </c>
-      <c r="C5" s="3">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.71794871794871795</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.20592785851682538</v>
-      </c>
-      <c r="H5" s="4">
-        <v>5.2802015004314203e-003</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-7.4211502782931538e-003</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1.8365472910927494e-002</v>
-      </c>
-      <c r="K5" s="3">
-        <v>226800</v>
-      </c>
-      <c r="L5" s="3">
-        <v>758508.19672131143</v>
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.29376846689094005</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5.5428012620932082e-003</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-2.9787234042553123e-002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6.4837905236907689e-002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>104800</v>
+      </c>
+      <c r="N5">
+        <v>2411759.8360655736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>122</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>0.70588235294117652</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G6" s="2">
-        <v>0.18222440958298602</v>
+        <v>0.25902234908988209</v>
       </c>
       <c r="H6" s="2">
-        <v>3.5730276388820791e-003</v>
+        <v>6.4755587272470518e-003</v>
       </c>
       <c r="I6" s="2">
-        <v>-7.8929306794783827e-003</v>
+        <v>-3.2258064516129115e-002</v>
       </c>
       <c r="J6" s="2">
-        <v>3.8904899135446591e-002</v>
-      </c>
-      <c r="K6">
-        <v>153500</v>
-      </c>
-      <c r="L6">
-        <v>398698.36065573769</v>
+        <v>3.6231884057971175e-002</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6">
+        <v>2958000</v>
+      </c>
+      <c r="N6">
+        <v>19397011.475409836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2">
-        <v>0.65714285714285714</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="G7" s="2">
-        <v>0.19009179262558928</v>
+        <v>0.25350047260463981</v>
       </c>
       <c r="H7" s="2">
-        <v>5.4311940750168368e-003</v>
+        <v>7.6818325031709038e-003</v>
       </c>
       <c r="I7" s="2">
-        <v>-9.2936802973977439e-003</v>
+        <v>-1.4376996805111841e-002</v>
       </c>
       <c r="J7" s="2">
-        <v>4.1016753321779342e-002</v>
-      </c>
-      <c r="K7">
-        <v>272900</v>
-      </c>
-      <c r="L7">
-        <v>1626389.5833333333</v>
+        <v>9.259259259259256e-002</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>2322800</v>
+      </c>
+      <c r="N7">
+        <v>6433095.9016393442</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>122</v>
@@ -935,492 +1187,570 @@
         <v>47</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2">
-        <v>0.68085106382978722</v>
+        <v>0.80851063829787229</v>
       </c>
       <c r="G8" s="2">
-        <v>0.15331802972217456</v>
+        <v>0.24933835005811444</v>
       </c>
       <c r="H8" s="2">
-        <v>3.2620857387696714e-003</v>
+        <v>5.3050712778322223e-003</v>
       </c>
       <c r="I8" s="2">
-        <v>-9.9750623441395847e-003</v>
+        <v>-3.3224755700325681e-002</v>
       </c>
       <c r="J8" s="2">
-        <v>2.6976744186046453e-002</v>
-      </c>
-      <c r="K8">
-        <v>3437700</v>
-      </c>
-      <c r="L8">
-        <v>10325722.950819673</v>
+        <v>2.864107251675807e-002</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>575600</v>
+      </c>
+      <c r="N8">
+        <v>3056993.4426229508</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3">
-        <v>122</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>122</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="D9">
         <v>30</v>
       </c>
-      <c r="E9" s="3">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.23375007332612541</v>
-      </c>
-      <c r="H9" s="4">
-        <v>5.4360482168866377e-003</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.23406218318879701</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5.5729091235427863e-003</v>
+      </c>
+      <c r="I9" s="2">
         <v>-1.019008426415835e-002</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>3.1725336810082494e-002</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9">
         <v>1465800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9">
         <v>5188090.9836065574</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>122</v>
-      </c>
-      <c r="C10" s="3">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.75510204081632648</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.1820848890810457</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3.7160181445111367e-003</v>
-      </c>
-      <c r="I10" s="4">
-        <v>-1.0588235294117676e-002</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3.8694074969770398e-002</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3322700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>9322819.6721311472</v>
+      <c r="B10">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.23280075595020233</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.4769376144269679e-003</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-3.771661569826712e-002</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.0812324929972101e-002</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10">
+        <v>977600</v>
+      </c>
+      <c r="N10">
+        <v>6215458.1967213117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>122</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
-        <v>0.65517241379310343</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="G11" s="2">
-        <v>0.17981453628878008</v>
+        <v>0.22852777201212937</v>
       </c>
       <c r="H11" s="2">
-        <v>3.1002506256686221e-003</v>
+        <v>5.1938130002756678e-003</v>
       </c>
       <c r="I11" s="2">
-        <v>-1.0752688172043112e-002</v>
+        <v>-2.3592085235920934e-002</v>
       </c>
       <c r="J11" s="2">
-        <v>1.7475728155339709e-002</v>
-      </c>
-      <c r="K11">
-        <v>2209200</v>
-      </c>
-      <c r="L11">
-        <v>7833252.4590163939</v>
+        <v>3.8428693424423566e-002</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11">
+        <v>406700</v>
+      </c>
+      <c r="N11">
+        <v>2115841.8032786883</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>122</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2">
-        <v>0.72972972972972971</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G12" s="2">
-        <v>0.18568111043070235</v>
+        <v>0.22768044689347533</v>
       </c>
       <c r="H12" s="2">
-        <v>5.0184083900189826e-003</v>
+        <v>4.4643224881073598e-003</v>
       </c>
       <c r="I12" s="2">
-        <v>-1.1086474501108556e-002</v>
+        <v>-1.3687600644122333e-002</v>
       </c>
       <c r="J12" s="2">
-        <v>3.9208222306813978e-002</v>
-      </c>
-      <c r="K12">
-        <v>106300</v>
-      </c>
-      <c r="L12">
-        <v>430940.16393442621</v>
+        <v>2.6562500000000044e-002</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12">
+        <v>461600</v>
+      </c>
+      <c r="N12">
+        <v>6811811.4754098365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>122</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="G13" s="2">
-        <v>0.1603283521025024</v>
+        <v>0.20090595598483263</v>
       </c>
       <c r="H13" s="2">
-        <v>3.6438261841477818e-003</v>
+        <v>4.1855407496840134e-003</v>
       </c>
       <c r="I13" s="2">
-        <v>-1.1138613861386149e-002</v>
+        <v>-2.3328847016599319e-002</v>
       </c>
       <c r="J13" s="2">
-        <v>1.7651052274270107e-002</v>
-      </c>
-      <c r="K13">
-        <v>924100</v>
-      </c>
-      <c r="L13">
-        <v>3770422.1311475411</v>
+        <v>3.0317613089509088e-002</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13">
+        <v>225400</v>
+      </c>
+      <c r="N13">
+        <v>654222.13114754099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
-        <v>0.7142857142857143</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="G14" s="2">
-        <v>9.4338912585535617e-002</v>
+        <v>0.19661375421311977</v>
       </c>
       <c r="H14" s="2">
-        <v>4.492329170739791e-003</v>
+        <v>4.5724128886772044e-003</v>
       </c>
       <c r="I14" s="2">
-        <v>-1.1443102352193257e-002</v>
+        <v>-1.8791946308724938e-002</v>
       </c>
       <c r="J14" s="2">
-        <v>1.5113350125944613e-002</v>
-      </c>
-      <c r="K14">
-        <v>101400</v>
-      </c>
-      <c r="L14">
-        <v>945246.15384615387</v>
+        <v>1.8045112781954753e-002</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14">
+        <v>1543200</v>
+      </c>
+      <c r="N14">
+        <v>7929274.590163934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>122</v>
       </c>
       <c r="C15">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.75609756097560976</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.19210144085532677</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.6854009964713847e-003</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-8.8202866593164453e-003</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.880184331797242e-002</v>
+      </c>
+      <c r="K15" t="s">
         <v>53</v>
       </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.69811320754716977</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.17167726361071578</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3.2391936530323734e-003</v>
-      </c>
-      <c r="I15" s="2">
-        <v>-1.2061403508771829e-002</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.9695044472681111e-002</v>
-      </c>
-      <c r="K15">
-        <v>904800</v>
-      </c>
-      <c r="L15">
-        <v>2244840.1639344264</v>
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15">
+        <v>307800</v>
+      </c>
+      <c r="N15">
+        <v>901571.31147540989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>122</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2">
-        <v>0.6875</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="G16" s="2">
-        <v>0.15029268644555349</v>
+        <v>0.1900846179982647</v>
       </c>
       <c r="H16" s="2">
-        <v>3.1310976342823643e-003</v>
+        <v>4.4205725115875512e-003</v>
       </c>
       <c r="I16" s="2">
-        <v>-1.2804097311139628e-002</v>
+        <v>-1.6129032258064502e-002</v>
       </c>
       <c r="J16" s="2">
-        <v>4.3895747599451251e-002</v>
-      </c>
-      <c r="K16">
-        <v>1136000</v>
-      </c>
-      <c r="L16">
-        <v>4107523.7704918031</v>
+        <v>2.5641025641025772e-002</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16">
+        <v>22681900</v>
+      </c>
+      <c r="N16">
+        <v>44318845.081967212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>38</v>
+      </c>
+      <c r="D17">
         <v>27</v>
       </c>
-      <c r="B17">
-        <v>122</v>
-      </c>
-      <c r="C17">
-        <v>43</v>
-      </c>
-      <c r="D17">
-        <v>31</v>
-      </c>
       <c r="E17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2">
-        <v>0.72093023255813948</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="G17" s="2">
-        <v>0.13628392426603675</v>
+        <v>0.18831109089397779</v>
       </c>
       <c r="H17" s="2">
-        <v>3.1693935875822502e-003</v>
+        <v>4.9555550235257312e-003</v>
       </c>
       <c r="I17" s="2">
-        <v>-1.3595166163141936e-002</v>
+        <v>-7.1942446043166131e-003</v>
       </c>
       <c r="J17" s="2">
-        <v>2.0116807268007797e-002</v>
-      </c>
-      <c r="K17">
-        <v>272300</v>
-      </c>
-      <c r="L17">
-        <v>1093519.6721311475</v>
+        <v>2.185089974293053e-002</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <v>129700</v>
+      </c>
+      <c r="N17">
+        <v>1301420.2127659575</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B18">
         <v>122</v>
       </c>
       <c r="C18">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2">
-        <v>0.67924528301886788</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="G18" s="2">
-        <v>0.17803992990949291</v>
+        <v>0.18161058880853687</v>
       </c>
       <c r="H18" s="2">
-        <v>3.3592439605564699e-003</v>
+        <v>5.0447385780149128e-003</v>
       </c>
       <c r="I18" s="2">
-        <v>-1.3698630136986356e-002</v>
+        <v>-7.4211502782931538e-003</v>
       </c>
       <c r="J18" s="2">
-        <v>2.4793388429751984e-002</v>
-      </c>
-      <c r="K18">
-        <v>2055100</v>
-      </c>
-      <c r="L18">
-        <v>6909641.8032786883</v>
+        <v>1.8365472910927494e-002</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18">
+        <v>226800</v>
+      </c>
+      <c r="N18">
+        <v>758508.19672131143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>122</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2">
-        <v>0.65217391304347827</v>
+        <v>0.71153846153846156</v>
       </c>
       <c r="G19" s="2">
-        <v>0.15934887934086983</v>
+        <v>0.1813183991222318</v>
       </c>
       <c r="H19" s="2">
-        <v>3.4641060726276051e-003</v>
+        <v>3.4868922908121501e-003</v>
       </c>
       <c r="I19" s="2">
-        <v>-1.3956734124214831e-002</v>
+        <v>-1.2061403508771829e-002</v>
       </c>
       <c r="J19" s="2">
-        <v>3.9912917271407888e-002</v>
-      </c>
-      <c r="K19">
-        <v>716900</v>
-      </c>
-      <c r="L19">
-        <v>2027089.3442622952</v>
+        <v>1.9695044472681111e-002</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19">
+        <v>904800</v>
+      </c>
+      <c r="N19">
+        <v>2244840.1639344264</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>122</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>0.79411764705882348</v>
+        <v>0.65306122448979587</v>
       </c>
       <c r="G20" s="2">
-        <v>0.2547304849047628</v>
+        <v>0.18129990347967728</v>
       </c>
       <c r="H20" s="2">
-        <v>7.4920730854341998e-003</v>
+        <v>3.6999980301974955e-003</v>
       </c>
       <c r="I20" s="2">
-        <v>-1.4376996805111841e-002</v>
+        <v>-1.2115563839701804e-002</v>
       </c>
       <c r="J20" s="2">
-        <v>9.259259259259256e-002</v>
-      </c>
-      <c r="K20">
-        <v>2322800</v>
-      </c>
-      <c r="L20">
-        <v>6433095.9016393442</v>
+        <v>2.2176022176022103e-002</v>
+      </c>
+      <c r="K20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20">
+        <v>185400</v>
+      </c>
+      <c r="N20">
+        <v>811033.60655737703</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>122</v>
@@ -1429,763 +1759,1088 @@
         <v>36</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2">
-        <v>0.80555555555555558</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="G21" s="2">
-        <v>0.11676530204104862</v>
+        <v>0.17813843476575597</v>
       </c>
       <c r="H21" s="2">
-        <v>3.2434806122513507e-003</v>
+        <v>4.9482898546043324e-003</v>
       </c>
       <c r="I21" s="2">
-        <v>-1.5387689848121444e-002</v>
+        <v>-1.1086474501108556e-002</v>
       </c>
       <c r="J21" s="2">
-        <v>3.35527712890209e-002</v>
-      </c>
-      <c r="K21">
-        <v>2726900</v>
-      </c>
-      <c r="L21">
-        <v>6775728.6885245899</v>
+        <v>3.9208222306813978e-002</v>
+      </c>
+      <c r="K21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21">
+        <v>106300</v>
+      </c>
+      <c r="N21">
+        <v>430940.16393442621</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <v>122</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2">
-        <v>0.72727272727272729</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G22" s="2">
-        <v>0.17686004165097857</v>
+        <v>0.17695330918398766</v>
       </c>
       <c r="H22" s="2">
-        <v>4.0195464011586043e-003</v>
+        <v>3.2769131330368084e-003</v>
       </c>
       <c r="I22" s="2">
-        <v>-1.5682174594877196e-002</v>
+        <v>-0.12416851441241672</v>
       </c>
       <c r="J22" s="2">
-        <v>2.1884498480243098e-002</v>
-      </c>
-      <c r="K22">
-        <v>572600</v>
-      </c>
-      <c r="L22">
-        <v>1821481.9672131147</v>
+        <v>2.6431718061673992e-002</v>
+      </c>
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22">
+        <v>250000</v>
+      </c>
+      <c r="N22">
+        <v>3303066.3934426229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>122</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2">
-        <v>0.73809523809523814</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="G23" s="2">
-        <v>0.17621266230517785</v>
+        <v>0.1753579380911402</v>
       </c>
       <c r="H23" s="2">
-        <v>4.1955395786947109e-003</v>
+        <v>3.653290376898754e-003</v>
       </c>
       <c r="I23" s="2">
-        <v>-1.5888778550148919e-002</v>
+        <v>-7.8929306794783827e-003</v>
       </c>
       <c r="J23" s="2">
-        <v>2.880184331797242e-002</v>
-      </c>
-      <c r="K23">
-        <v>307800</v>
-      </c>
-      <c r="L23">
-        <v>901571.31147540989</v>
+        <v>3.8904899135446591e-002</v>
+      </c>
+      <c r="K23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23">
+        <v>153500</v>
+      </c>
+      <c r="N23">
+        <v>398698.36065573769</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B24">
         <v>122</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="G24" s="2">
-        <v>0.15601723044677485</v>
+        <v>0.17497942317066439</v>
       </c>
       <c r="H24" s="2">
-        <v>3.4670495654838857e-003</v>
+        <v>3.124632556619007e-003</v>
       </c>
       <c r="I24" s="2">
-        <v>-1.6042780748663277e-002</v>
+        <v>-1.0752688172043112e-002</v>
       </c>
       <c r="J24" s="2">
-        <v>1.7839444995044529e-002</v>
-      </c>
-      <c r="K24">
-        <v>1314200</v>
-      </c>
-      <c r="L24">
-        <v>3703647.5409836066</v>
+        <v>1.7475728155339709e-002</v>
+      </c>
+      <c r="K24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24">
+        <v>2209200</v>
+      </c>
+      <c r="N24">
+        <v>7833252.4590163939</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>122</v>
       </c>
       <c r="C25">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2">
-        <v>0.72727272727272729</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="G25" s="2">
-        <v>0.18018975096054046</v>
+        <v>0.17494469530239842</v>
       </c>
       <c r="H25" s="2">
-        <v>4.0952216127395557e-003</v>
+        <v>3.8876598956088539e-003</v>
       </c>
       <c r="I25" s="2">
-        <v>-1.6129032258064502e-002</v>
+        <v>-1.0588235294117676e-002</v>
       </c>
       <c r="J25" s="2">
-        <v>2.5641025641025772e-002</v>
-      </c>
-      <c r="K25">
-        <v>22681900</v>
-      </c>
-      <c r="L25">
-        <v>44318845.081967212</v>
+        <v>3.8694074969770398e-002</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25">
+        <v>3322700</v>
+      </c>
+      <c r="N25">
+        <v>9322819.6721311472</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>122</v>
+      </c>
+      <c r="C26">
         <v>36</v>
       </c>
-      <c r="B26">
-        <v>122</v>
-      </c>
-      <c r="C26">
-        <v>45</v>
-      </c>
       <c r="D26">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F26" s="2">
-        <v>0.68888888888888888</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G26" s="2">
-        <v>0.14595900143969764</v>
+        <v>0.16396663254940458</v>
       </c>
       <c r="H26" s="2">
-        <v>3.2435333653266143e-003</v>
+        <v>4.5546286819279046e-003</v>
       </c>
       <c r="I26" s="2">
-        <v>-1.7560975609756113e-002</v>
+        <v>-3.1489361702127572e-002</v>
       </c>
       <c r="J26" s="2">
-        <v>2.0491803278688492e-002</v>
-      </c>
-      <c r="K26">
-        <v>118100</v>
-      </c>
-      <c r="L26">
-        <v>1061177.0491803279</v>
+        <v>2.6007802340702213e-002</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26">
+        <v>3508000</v>
+      </c>
+      <c r="N26">
+        <v>8882714.7540983614</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>122</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G27" s="2">
-        <v>0.19568004739705991</v>
+        <v>0.16023322357659564</v>
       </c>
       <c r="H27" s="2">
-        <v>4.4472738044786346e-003</v>
+        <v>3.8150767518237059e-003</v>
       </c>
       <c r="I27" s="2">
-        <v>-1.8791946308724938e-002</v>
+        <v>-1.5682174594877196e-002</v>
       </c>
       <c r="J27" s="2">
-        <v>1.8045112781954753e-002</v>
-      </c>
-      <c r="K27">
-        <v>1543200</v>
-      </c>
-      <c r="L27">
-        <v>7929274.590163934</v>
+        <v>2.1884498480243098e-002</v>
+      </c>
+      <c r="K27" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27">
+        <v>572600</v>
+      </c>
+      <c r="N27">
+        <v>1821481.9672131147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2">
-        <v>0.82352941176470584</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="G28" s="2">
-        <v>0.13791365491754426</v>
+        <v>0.15934887934086983</v>
       </c>
       <c r="H28" s="2">
-        <v>4.0562839681630661e-003</v>
+        <v>3.4641060726276051e-003</v>
       </c>
       <c r="I28" s="2">
-        <v>-2.0304568527918843e-002</v>
+        <v>-1.3956734124214831e-002</v>
       </c>
       <c r="J28" s="2">
-        <v>1.8055555555555491e-002</v>
-      </c>
-      <c r="K28">
-        <v>192000</v>
-      </c>
-      <c r="L28">
-        <v>1058560.2040816327</v>
+        <v>3.9912917271407888e-002</v>
+      </c>
+      <c r="K28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28">
+        <v>716900</v>
+      </c>
+      <c r="N28">
+        <v>2027089.3442622952</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B29">
         <v>122</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2">
-        <v>0.73469387755102045</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="G29" s="2">
-        <v>0.29476678497868736</v>
+        <v>0.1586673808055904</v>
       </c>
       <c r="H29" s="2">
-        <v>6.0156486730344357e-003</v>
+        <v>3.1733476161118078e-003</v>
       </c>
       <c r="I29" s="2">
-        <v>-2.3081052066559304e-002</v>
+        <v>-1.3698630136986356e-002</v>
       </c>
       <c r="J29" s="2">
-        <v>3.0337721808815221e-002</v>
-      </c>
-      <c r="K29">
-        <v>6009000</v>
-      </c>
-      <c r="L29">
-        <v>25010753.278688524</v>
+        <v>2.4793388429751984e-002</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29">
+        <v>2055100</v>
+      </c>
+      <c r="N29">
+        <v>6909641.8032786883</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>122</v>
       </c>
       <c r="C30">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.1551558205593605</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3.4479071235413443e-003</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-9.9750623441395847e-003</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2.6976744186046453e-002</v>
+      </c>
+      <c r="K30" t="s">
         <v>50</v>
       </c>
-      <c r="D30">
-        <v>40</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.19791661125263449</v>
-      </c>
-      <c r="H30" s="2">
-        <v>3.9583322250526902e-003</v>
-      </c>
-      <c r="I30" s="2">
-        <v>-2.3255813953488302e-002</v>
-      </c>
-      <c r="J30" s="2">
-        <v>3.0215827338129442e-002</v>
-      </c>
-      <c r="K30">
-        <v>225400</v>
-      </c>
-      <c r="L30">
-        <v>654222.13114754099</v>
+      <c r="L30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30">
+        <v>3437700</v>
+      </c>
+      <c r="N30">
+        <v>10325722.950819673</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B31">
         <v>122</v>
       </c>
       <c r="C31">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" s="2">
-        <v>0.7021276595744681</v>
+        <v>0.73469387755102045</v>
       </c>
       <c r="G31" s="2">
-        <v>0.29315000843640682</v>
+        <v>0.15329944844753551</v>
       </c>
       <c r="H31" s="2">
-        <v>6.2372342220512085e-003</v>
+        <v>3.1285601723986842e-003</v>
       </c>
       <c r="I31" s="2">
-        <v>-2.3592085235920934e-002</v>
+        <v>-3.003003003003013e-002</v>
       </c>
       <c r="J31" s="2">
-        <v>5.5305466237942191e-002</v>
-      </c>
-      <c r="K31">
-        <v>406700</v>
-      </c>
-      <c r="L31">
-        <v>2115841.8032786883</v>
+        <v>1.672240802675562e-002</v>
+      </c>
+      <c r="K31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" t="s">
+        <v>94</v>
+      </c>
+      <c r="M31">
+        <v>403100</v>
+      </c>
+      <c r="N31">
+        <v>1348804.9180327868</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B32">
         <v>122</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" s="2">
-        <v>0.72549019607843135</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="G32" s="2">
-        <v>0.15523181559729393</v>
+        <v>0.1524508210662926</v>
       </c>
       <c r="H32" s="2">
-        <v>3.0437610901430183e-003</v>
+        <v>3.314148284049839e-003</v>
       </c>
       <c r="I32" s="2">
-        <v>-3.003003003003013e-002</v>
+        <v>-3.287944204583193e-002</v>
       </c>
       <c r="J32" s="2">
-        <v>1.672240802675562e-002</v>
-      </c>
-      <c r="K32">
-        <v>403100</v>
-      </c>
-      <c r="L32">
-        <v>1348804.9180327868</v>
+        <v>4.648713705431029e-002</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M32">
+        <v>128656</v>
+      </c>
+      <c r="N32">
+        <v>599396.59836065571</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B33">
         <v>122</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2">
-        <v>0.7567567567567568</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G33" s="2">
-        <v>0.16396663254940458</v>
+        <v>0.15191599659933241</v>
       </c>
       <c r="H33" s="2">
-        <v>4.4315306094433668e-003</v>
+        <v>3.1003264612108655e-003</v>
       </c>
       <c r="I33" s="2">
-        <v>-3.1489361702127572e-002</v>
+        <v>-1.5410958904109595e-002</v>
       </c>
       <c r="J33" s="2">
-        <v>2.6007802340702213e-002</v>
-      </c>
-      <c r="K33">
-        <v>3508000</v>
-      </c>
-      <c r="L33">
-        <v>8882714.7540983614</v>
+        <v>1.5636634400595817e-002</v>
+      </c>
+      <c r="K33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33">
+        <v>1218300</v>
+      </c>
+      <c r="N33">
+        <v>3256608.1967213117</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2">
-        <v>0.73170731707317072</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="G34" s="2">
-        <v>0.27214570866993448</v>
+        <v>0.15134243460667673</v>
       </c>
       <c r="H34" s="2">
-        <v>6.6377002114618167e-003</v>
+        <v>7.9653912950882495e-003</v>
       </c>
       <c r="I34" s="2">
-        <v>-3.2258064516129115e-002</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>3.6231884057971175e-002</v>
-      </c>
-      <c r="K34">
-        <v>2958000</v>
-      </c>
-      <c r="L34">
-        <v>19397011.475409836</v>
+        <v>3.4358047016274984e-002</v>
+      </c>
+      <c r="L34" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34">
+        <v>118600</v>
+      </c>
+      <c r="N34">
+        <v>1103927.9069767443</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B35">
         <v>122</v>
       </c>
       <c r="C35">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F35" s="2">
-        <v>0.65957446808510634</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G35" s="2">
-        <v>0.15687315384683453</v>
+        <v>0.14572383978086056</v>
       </c>
       <c r="H35" s="2">
-        <v>3.3377266775922241e-003</v>
+        <v>3.643095994521514e-003</v>
       </c>
       <c r="I35" s="2">
-        <v>-3.287944204583193e-002</v>
+        <v>-1.1138613861386149e-002</v>
       </c>
       <c r="J35" s="2">
-        <v>4.648713705431029e-002</v>
-      </c>
-      <c r="K35">
-        <v>128656</v>
-      </c>
-      <c r="L35">
-        <v>599396.59836065571</v>
+        <v>1.7651052274270107e-002</v>
+      </c>
+      <c r="K35" t="s">
+        <v>101</v>
+      </c>
+      <c r="L35" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35">
+        <v>924100</v>
+      </c>
+      <c r="N35">
+        <v>3770422.1311475411</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B36">
         <v>122</v>
       </c>
       <c r="C36">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F36" s="2">
-        <v>0.80851063829787229</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="G36" s="2">
-        <v>0.24933835005811444</v>
+        <v>0.14307035754403852</v>
       </c>
       <c r="H36" s="2">
-        <v>5.3050712778322223e-003</v>
+        <v>3.2515990350917845e-003</v>
       </c>
       <c r="I36" s="2">
-        <v>-3.3224755700325681e-002</v>
+        <v>-1.2804097311139628e-002</v>
       </c>
       <c r="J36" s="2">
-        <v>2.864107251675807e-002</v>
-      </c>
-      <c r="K36">
-        <v>575600</v>
-      </c>
-      <c r="L36">
-        <v>3056993.4426229508</v>
+        <v>4.3895747599451251e-002</v>
+      </c>
+      <c r="K36" t="s">
+        <v>104</v>
+      </c>
+      <c r="L36" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36">
+        <v>1136000</v>
+      </c>
+      <c r="N36">
+        <v>4107523.7704918031</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>122</v>
       </c>
       <c r="C37">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2">
-        <v>0.67272727272727273</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G37" s="2">
-        <v>0.22854642364875799</v>
+        <v>0.13893250132891033</v>
       </c>
       <c r="H37" s="2">
-        <v>4.1553895208865091e-003</v>
+        <v>3.0873889184202296e-003</v>
       </c>
       <c r="I37" s="2">
-        <v>-3.771661569826712e-002</v>
+        <v>-1.6330451488952957e-002</v>
       </c>
       <c r="J37" s="2">
-        <v>3.0812324929972101e-002</v>
-      </c>
-      <c r="K37">
-        <v>977600</v>
-      </c>
-      <c r="L37">
-        <v>6215458.1967213117</v>
+        <v>4.02429764616552e-002</v>
+      </c>
+      <c r="K37" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" t="s">
+        <v>92</v>
+      </c>
+      <c r="M37">
+        <v>6546100</v>
+      </c>
+      <c r="N37">
+        <v>18456384.426229507</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B38">
         <v>122</v>
       </c>
       <c r="C38">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.13008651737795918</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3.172841887267297e-003</v>
+      </c>
+      <c r="I38" s="2">
+        <v>-1.7560975609756113e-002</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2.0491803278688492e-002</v>
+      </c>
+      <c r="K38" t="s">
+        <v>107</v>
+      </c>
+      <c r="L38" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38">
+        <v>118100</v>
+      </c>
+      <c r="N38">
+        <v>1061177.0491803279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39">
+        <v>122</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.13005581329452776</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3.4225214024875723e-003</v>
+      </c>
+      <c r="I39" s="2">
+        <v>-1.3595166163141936e-002</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2.0116807268007797e-002</v>
+      </c>
+      <c r="K39" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" t="s">
+        <v>110</v>
+      </c>
+      <c r="M39">
+        <v>272300</v>
+      </c>
+      <c r="N39">
+        <v>1093519.6721311475</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40">
+        <v>122</v>
+      </c>
+      <c r="C40">
         <v>42</v>
       </c>
-      <c r="D38">
+      <c r="D40">
+        <v>29</v>
+      </c>
+      <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.12843756612862833</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3.0580372887768653e-003</v>
+      </c>
+      <c r="I40" s="2">
+        <v>-2.1444695259593582e-002</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1.7117614577581541e-002</v>
+      </c>
+      <c r="K40" t="s">
+        <v>112</v>
+      </c>
+      <c r="L40" t="s">
+        <v>113</v>
+      </c>
+      <c r="M40">
+        <v>709100</v>
+      </c>
+      <c r="N40">
+        <v>5238067.7213114752</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41">
+        <v>122</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.12562014901335561</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3.6947102650986942e-003</v>
+      </c>
+      <c r="I41" s="2">
+        <v>-1.5387689848121444e-002</v>
+      </c>
+      <c r="J41" s="2">
+        <v>3.35527712890209e-002</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41">
+        <v>2726900</v>
+      </c>
+      <c r="N41">
+        <v>6775728.6885245899</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42">
+        <v>98</v>
+      </c>
+      <c r="C42">
         <v>31</v>
       </c>
-      <c r="E38">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.73809523809523814</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.3757430047638276</v>
-      </c>
-      <c r="H38" s="2">
-        <v>8.9462620181863708e-003</v>
-      </c>
-      <c r="I38" s="2">
-        <v>-0.11358490566037738</v>
-      </c>
-      <c r="J38" s="2">
-        <v>4.311543810848395e-002</v>
-      </c>
-      <c r="K38">
-        <v>105400</v>
-      </c>
-      <c r="L38">
-        <v>2094783.6065573771</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="B42" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.12056508730169224</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3.8891963645707175e-003</v>
+      </c>
+      <c r="I42" s="2">
+        <v>-2.0304568527918843e-002</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1.8055555555555491e-002</v>
+      </c>
+      <c r="K42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42">
+        <v>192000</v>
+      </c>
+      <c r="N42">
+        <v>1058560.2040816327</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G43" s="2">
+        <v>9.4338912585535617e-002</v>
+      </c>
+      <c r="H43" s="2">
+        <v>4.492329170739791e-003</v>
+      </c>
+      <c r="I43" s="2">
+        <v>-1.1443102352193257e-002</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1.5113350125944613e-002</v>
+      </c>
+      <c r="K43" t="s">
+        <v>119</v>
+      </c>
+      <c r="L43" t="s">
+        <v>120</v>
+      </c>
+      <c r="M43">
+        <v>101400</v>
+      </c>
+      <c r="N43">
+        <v>945246.15384615387</v>
+      </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="B45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" ht="76.5" customHeight="1">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:L38" columnSort="0">
-    <sortCondition sortBy="value" descending="0" ref="I2:I38"/>
+  <sortState ref="A2:N43" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="G2:G43"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B42:K47"/>
+    <mergeCell ref="B45:K50"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>